--- a/Excel/DungeonSectionConfig.xlsx
+++ b/Excel/DungeonSectionConfig.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B0A07F-9A37-4BA5-89F9-26C24BE5AB97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED3E400D-5C36-4832-BA31-A2A515C80524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -143,7 +143,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0,12,14</t>
+    <t>0,10,15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18,21,24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,33,35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40,43,45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,53,55</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -920,7 +936,7 @@
   <dimension ref="C3:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1013,7 +1029,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H7" s="2"/>
     </row>
@@ -1031,7 +1047,7 @@
         <v>17</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="3:9" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1048,7 +1064,7 @@
         <v>18</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H9" s="2"/>
     </row>
@@ -1066,7 +1082,7 @@
         <v>19</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H10" s="2"/>
     </row>

--- a/Excel/DungeonSectionConfig.xlsx
+++ b/Excel/DungeonSectionConfig.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED3E400D-5C36-4832-BA31-A2A515C80524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D1E1C94-FC55-4FA9-86E3-5859F75FFA68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,15 +11,6 @@
     <sheet name="DungeonSectionProto" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -147,10 +138,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>18,21,24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>30,33,35</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -160,6 +147,10 @@
   </si>
   <si>
     <t>50,53,55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18,22,25</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -341,7 +332,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -356,9 +347,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -936,7 +924,7 @@
   <dimension ref="C3:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -947,7 +935,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -964,7 +952,7 @@
       </c>
     </row>
     <row r="4" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -973,10 +961,10 @@
       <c r="E4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="6" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1016,20 +1004,20 @@
       </c>
     </row>
     <row r="7" spans="3:9" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <v>2</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="9" t="s">
         <v>21</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H7" s="2"/>
     </row>
@@ -1037,52 +1025,52 @@
       <c r="C8" s="4">
         <v>3</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="10" t="s">
         <v>17</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="3:9" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C9" s="9">
+      <c r="C9" s="8">
         <v>4</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="10" t="s">
         <v>18</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="3:9" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C10" s="9">
+      <c r="C10" s="8">
         <v>5</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="10" t="s">
         <v>19</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H10" s="2"/>
     </row>

--- a/Excel/DungeonSectionConfig.xlsx
+++ b/Excel/DungeonSectionConfig.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D1E1C94-FC55-4FA9-86E3-5859F75FFA68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046AB1E0-7FD4-4ABA-A841-3F6515EC5A5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -151,6 +151,14 @@
   </si>
   <si>
     <t>18,22,25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黎明之光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60,62,65</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -924,7 +932,7 @@
   <dimension ref="C3:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1061,7 +1069,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>24</v>
@@ -1075,6 +1083,21 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="3:9" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C11" s="8">
+        <v>6</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="8">
+        <v>60001</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="3:9" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">

--- a/Excel/DungeonSectionConfig.xlsx
+++ b/Excel/DungeonSectionConfig.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB0D767D-9A96-479D-973D-25E157FCC1E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="14085"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DungeonSectionProto" sheetId="1" r:id="rId1"/>
@@ -14,18 +20,18 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Item_Template" type="4" background="1" refreshedVersion="2" saveData="1">
-    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlFormat="all" htmlTables="1"/>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="Item_Template" type="4" refreshedVersion="2" background="1" saveData="1">
+    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="2" name="Item_Template1" type="4" background="1" refreshedVersion="2" saveData="1">
-    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlFormat="all" htmlTables="1"/>
+  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" name="Item_Template1" type="4" refreshedVersion="2" background="1" saveData="1">
+    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>Id</t>
   </si>
@@ -130,19 +136,17 @@
   </si>
   <si>
     <t>60,62,65</t>
+  </si>
+  <si>
+    <t>60001,60002</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,6 +158,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -162,12 +167,14 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -175,6 +182,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -182,162 +190,19 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -358,198 +223,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149998474074526"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="0" tint="-0.14996795556505021"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -630,261 +309,19 @@
         <color theme="1" tint="0.499984740745262"/>
       </right>
       <top style="thin">
-        <color theme="4" tint="0.399975585192419"/>
+        <color theme="4" tint="0.39994506668294322"/>
       </top>
       <bottom style="hair">
         <color theme="1" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -914,60 +351,24 @@
     <xf numFmtId="49" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 3" xfId="49"/>
+    <cellStyle name="常规 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1002,13 +403,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="C4:F5" totalsRowShown="0">
-  <autoFilter ref="C4:F5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="C4:F5" totalsRowShown="0">
+  <autoFilter ref="C4:F5" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Id"/>
-    <tableColumn id="2" name="ChapterName"/>
-    <tableColumn id="3" name="Name"/>
-    <tableColumn id="4" name="RandomArea"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ChapterName"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Name"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="RandomArea"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1295,26 +696,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="7.5" customWidth="1"/>
     <col min="4" max="5" width="16.75" customWidth="1"/>
     <col min="6" max="7" width="33.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:7">
+    <row r="3" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1331,7 +732,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:7">
+    <row r="4" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
@@ -1348,7 +749,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    <row r="5" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
@@ -1366,7 +767,7 @@
       </c>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:7">
+    <row r="6" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="6">
         <v>1</v>
       </c>
@@ -1383,7 +784,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:8">
+    <row r="7" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C7" s="8">
         <v>2</v>
       </c>
@@ -1401,7 +802,7 @@
       </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:7">
+    <row r="8" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="6">
         <v>3</v>
       </c>
@@ -1418,7 +819,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:8">
+    <row r="9" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C9" s="8">
         <v>4</v>
       </c>
@@ -1436,7 +837,7 @@
       </c>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:8">
+    <row r="10" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="8">
         <v>5</v>
       </c>
@@ -1454,7 +855,7 @@
       </c>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:8">
+    <row r="11" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="8">
         <v>6</v>
       </c>
@@ -1464,29 +865,29 @@
       <c r="E11" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="8">
-        <v>60001</v>
+      <c r="F11" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>34</v>
       </c>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" s="2" customFormat="1" ht="20.1" customHeight="1" spans="8:8">
+    <row r="12" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H12" s="1"/>
     </row>
-    <row r="13" s="2" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="14" s="2" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="15" s="2" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="16" s="2" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="17" s="2" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="18" s="2" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="19" s="2" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="20" s="2" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="13" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>

--- a/Excel/DungeonSectionConfig.xlsx
+++ b/Excel/DungeonSectionConfig.xlsx
@@ -1,22 +1,58 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB0D767D-9A96-479D-973D-25E157FCC1E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{684A6870-3E44-4D31-8A76-31AD0F4D61CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3360" yWindow="930" windowWidth="24000" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DungeonSectionProto" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Administrator</author>
+  </authors>
+  <commentList>
+    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{4AE5065B-D0CC-4FE5-9F20-2DA759B1B601}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+权重,进入地图</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
@@ -31,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
   <si>
     <t>Id</t>
   </si>
@@ -139,6 +175,42 @@
   </si>
   <si>
     <t>60001,60002</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>神秘之门地图ID</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShenMiEnterID</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>100;100101@100;100101</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>100;100201@100;100201</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>100;100401@100;100401</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>100;100501@100;100501</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>100;100601@100;100601</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>100;100301@100;100301</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -146,7 +218,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,6 +273,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -321,7 +408,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -352,6 +439,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -701,18 +791,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="7.5" customWidth="1"/>
     <col min="4" max="5" width="16.75" customWidth="1"/>
-    <col min="6" max="7" width="33.625" customWidth="1"/>
+    <col min="6" max="8" width="33.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -731,6 +821,9 @@
       <c r="G3" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="H3" s="4" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="4" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="3" t="s">
@@ -748,6 +841,9 @@
       <c r="G4" s="5" t="s">
         <v>8</v>
       </c>
+      <c r="H4" s="5" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="5" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="4" t="s">
@@ -764,6 +860,9 @@
       </c>
       <c r="G5" s="4" t="s">
         <v>11</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="I5" s="2"/>
     </row>
@@ -783,6 +882,9 @@
       <c r="G6" s="7" t="s">
         <v>15</v>
       </c>
+      <c r="H6" s="12" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="7" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C7" s="8">
@@ -800,7 +902,9 @@
       <c r="G7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="1"/>
+      <c r="H7" s="12" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="8" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="6">
@@ -818,6 +922,9 @@
       <c r="G8" s="7" t="s">
         <v>23</v>
       </c>
+      <c r="H8" s="12" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="9" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C9" s="8">
@@ -835,7 +942,9 @@
       <c r="G9" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="1"/>
+      <c r="H9" s="12" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="10" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="8">
@@ -853,7 +962,9 @@
       <c r="G10" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="1"/>
+      <c r="H10" s="12" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="11" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="8">
@@ -871,11 +982,11 @@
       <c r="G11" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="1"/>
+      <c r="H11" s="12" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="12" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H12" s="1"/>
-    </row>
+    <row r="12" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="13" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="14" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="15" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -888,8 +999,9 @@
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Excel/DungeonSectionConfig.xlsx
+++ b/Excel/DungeonSectionConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{684A6870-3E44-4D31-8A76-31AD0F4D61CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D11297D-ED4F-40B3-AB7A-0BE1E03B6CEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3360" yWindow="930" windowWidth="24000" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33225" yWindow="1215" windowWidth="24000" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DungeonSectionProto" sheetId="1" r:id="rId1"/>
@@ -190,27 +190,27 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>100;100101@100;100101</t>
+    <t>100;100101@100;100001</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>100;100201@100;100201</t>
+    <t>100;100201@100;100001</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>100;100401@100;100401</t>
+    <t>100;100301@100;100001</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>100;100501@100;100501</t>
+    <t>100;100401@100;100001</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>100;100601@100;100601</t>
+    <t>100;100501@100;100001</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>100;100301@100;100301</t>
+    <t>100;100601@100;100001</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -795,7 +795,7 @@
   <dimension ref="C3:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -923,7 +923,7 @@
         <v>23</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -943,7 +943,7 @@
         <v>27</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -963,7 +963,7 @@
         <v>31</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -983,7 +983,7 @@
         <v>34</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/Excel/DungeonSectionConfig.xlsx
+++ b/Excel/DungeonSectionConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D11297D-ED4F-40B3-AB7A-0BE1E03B6CEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B58ED0C-D6A7-4D62-B1DD-BC7544757A7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33225" yWindow="1215" windowWidth="24000" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="24000" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DungeonSectionProto" sheetId="1" r:id="rId1"/>
@@ -126,9 +126,6 @@
     <t>20001,20002,20003,20004,20005</t>
   </si>
   <si>
-    <t>18,22,25</t>
-  </si>
-  <si>
     <t>第三章</t>
   </si>
   <si>
@@ -211,6 +208,10 @@
   </si>
   <si>
     <t>100;100601@100;100001</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>15,22,25</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -795,7 +796,7 @@
   <dimension ref="C3:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -822,7 +823,7 @@
         <v>4</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -842,7 +843,7 @@
         <v>8</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -862,7 +863,7 @@
         <v>11</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I5" s="2"/>
     </row>
@@ -883,7 +884,7 @@
         <v>15</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -899,11 +900,11 @@
       <c r="F7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>19</v>
+      <c r="G7" s="12" t="s">
+        <v>44</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -911,19 +912,19 @@
         <v>3</v>
       </c>
       <c r="D8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="F8" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="G8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="H8" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -931,19 +932,19 @@
         <v>4</v>
       </c>
       <c r="D9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="F9" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="G9" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="7" t="s">
-        <v>27</v>
-      </c>
       <c r="H9" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -951,19 +952,19 @@
         <v>5</v>
       </c>
       <c r="D10" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="F10" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="G10" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="H10" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -971,19 +972,19 @@
         <v>6</v>
       </c>
       <c r="D11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="F11" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>34</v>
-      </c>
       <c r="H11" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/Excel/DungeonSectionConfig.xlsx
+++ b/Excel/DungeonSectionConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B58ED0C-D6A7-4D62-B1DD-BC7544757A7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA5C455-80B6-4A3A-B091-A194508ACB58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="24000" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DungeonSectionProto" sheetId="1" r:id="rId1"/>
@@ -171,10 +171,6 @@
     <t>60,62,65</t>
   </si>
   <si>
-    <t>60001,60002</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>string</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -212,6 +208,10 @@
   </si>
   <si>
     <t>15,22,25</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>60001,60002,60003</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -796,7 +796,7 @@
   <dimension ref="C3:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -823,7 +823,7 @@
         <v>4</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -843,7 +843,7 @@
         <v>8</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -863,7 +863,7 @@
         <v>11</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I5" s="2"/>
     </row>
@@ -884,7 +884,7 @@
         <v>15</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -901,10 +901,10 @@
         <v>18</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="3:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -924,7 +924,7 @@
         <v>22</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -944,7 +944,7 @@
         <v>26</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -964,7 +964,7 @@
         <v>30</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -978,13 +978,13 @@
         <v>32</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>33</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
